--- a/data/trans_camb/P35-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P35-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.568425627889134</v>
+        <v>1.673958281785906</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5611963822234357</v>
+        <v>-0.7881338699128576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.191686876953071</v>
+        <v>9.575170177517196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.587652611902373</v>
+        <v>4.490795393857296</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.290234416248049</v>
+        <v>3.501801077054612</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.973325312397769</v>
+        <v>7.520141722410004</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.683251802067216</v>
+        <v>4.757174239739126</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.020548270647907</v>
+        <v>2.774754050445802</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.850909927626251</v>
+        <v>9.929479600829897</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.64372103883792</v>
+        <v>10.59395681836603</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.825158927863127</v>
+        <v>7.805073125157012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.59760717322633</v>
+        <v>18.84032698446613</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.82022347146611</v>
+        <v>14.23529422954566</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.74159268078963</v>
+        <v>13.09987184916673</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.39025686353012</v>
+        <v>16.29597353240122</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.97346600589371</v>
+        <v>10.99297318296523</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.398436976307718</v>
+        <v>9.30085897063435</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.00759987130484</v>
+        <v>16.45234300218594</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.07811469233410771</v>
+        <v>0.08686372683414531</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02666643126244676</v>
+        <v>-0.04080690915399398</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4454726071956448</v>
+        <v>0.4739837513464809</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1856427287217718</v>
+        <v>0.1862591156680009</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1292136138286374</v>
+        <v>0.1467272620047878</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3213987664475433</v>
+        <v>0.2880750940973696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.217466229491491</v>
+        <v>0.2129690597671502</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1390925494028989</v>
+        <v>0.1247640150565341</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4435500753138008</v>
+        <v>0.4528815113704783</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6550334802887726</v>
+        <v>0.6702266605169039</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4958188224376541</v>
+        <v>0.485691318469105</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.148105366748493</v>
+        <v>1.19992641068839</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7523459729794952</v>
+        <v>0.6994794514172976</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6404015027345362</v>
+        <v>0.649932408817705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8414977991582506</v>
+        <v>0.8023545618530603</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5922380761161514</v>
+        <v>0.5848660193879209</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5036588394087063</v>
+        <v>0.4815015706044835</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8680272103340897</v>
+        <v>0.8761906023834567</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>13.55112285508287</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>18.4275654373112</v>
+        <v>18.42756543731118</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.677490352039819</v>
+        <v>6.472544708877242</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.758887960461822</v>
+        <v>8.958003298817218</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14.98807249442742</v>
+        <v>15.21393979146267</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.395952892905658</v>
+        <v>7.499904906154139</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.380417409148192</v>
+        <v>9.952975569123751</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.78405829800069</v>
+        <v>13.86080561549905</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.825729507530135</v>
+        <v>7.697977611738478</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.62235103749077</v>
+        <v>11.02381620420359</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>15.71158303346991</v>
+        <v>15.54936195433057</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.12636996316234</v>
+        <v>14.10640427571573</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.63866009503352</v>
+        <v>16.7082282952402</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.18883303866552</v>
+        <v>23.15260102503228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.91560296767181</v>
+        <v>16.21126464534602</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.26361319052507</v>
+        <v>18.47530790501306</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.47879223409562</v>
+        <v>21.16583736227645</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.7163194987009</v>
+        <v>13.67155349557804</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.17417354746152</v>
+        <v>16.34154387917133</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>21.2683620669465</v>
+        <v>21.09857554782008</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.6093759871424289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7517724268714847</v>
+        <v>0.7517724268714849</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5570144738919655</v>
@@ -983,7 +983,7 @@
         <v>0.6933837159270222</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9429014801986358</v>
+        <v>0.9429014801986353</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3783824088833457</v>
+        <v>0.3631118616485233</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4802287387997572</v>
+        <v>0.4982379187928246</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8505747569488834</v>
+        <v>0.8645191275939338</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2876848114471788</v>
+        <v>0.2930799250273614</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3710414709058556</v>
+        <v>0.3904040341328521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5258618918400548</v>
+        <v>0.5240286508492589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3691550581244201</v>
+        <v>0.3699531761109253</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.503799524990084</v>
+        <v>0.5237362706131953</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7410550684476002</v>
+        <v>0.737945919985163</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9857434212238755</v>
+        <v>0.9987441002012275</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.196601380655323</v>
+        <v>1.182082822671869</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.625883383210833</v>
+        <v>1.667690114011995</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7558974961930806</v>
+        <v>0.7674851409406654</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8569878645554906</v>
+        <v>0.8814425236879798</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.018976946879405</v>
+        <v>0.9971265473441417</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7548351726453372</v>
+        <v>0.7508468377319054</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8961015154350381</v>
+        <v>0.8850570585562818</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.174594663164971</v>
+        <v>1.150254250807432</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.372725540384723</v>
+        <v>1.412227419640107</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.63588037691502</v>
+        <v>7.527965340093128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.161932874676184</v>
+        <v>7.959746572683171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.05927624152868</v>
+        <v>4.429028094862432</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.365302353953735</v>
+        <v>7.221256676253082</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.511108996165447</v>
+        <v>6.233770052922947</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.686858102358463</v>
+        <v>4.180820129689316</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>8.52001985114682</v>
+        <v>8.421799182585245</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.591509291119262</v>
+        <v>8.135937354536907</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.10611646623528</v>
+        <v>11.19225608426885</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.13089924377126</v>
+        <v>17.11225311907119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.81307566113011</v>
+        <v>18.09092044629395</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.55167205107079</v>
+        <v>14.29376195300531</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.6639695959107</v>
+        <v>16.77193568388005</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.37384318787504</v>
+        <v>15.01737500032223</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.38848041284047</v>
+        <v>11.73744721389063</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.63226326282459</v>
+        <v>15.67095915808721</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.34353603125838</v>
+        <v>15.36290717083495</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.5299297738376537</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5189303698508498</v>
+        <v>0.5189303698508496</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06141079307143617</v>
+        <v>0.06217039540574228</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3326478895232401</v>
+        <v>0.3322458999658493</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3613052689055789</v>
+        <v>0.3389294963373462</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1852494089660602</v>
+        <v>0.1542381766942149</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2564727204729614</v>
+        <v>0.2571291939539451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2320615752836164</v>
+        <v>0.2266283059329288</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1906438196169158</v>
+        <v>0.171539718621267</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.343861668018367</v>
+        <v>0.3435132488621176</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3578613792032531</v>
+        <v>0.3254612196825706</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6311240433926514</v>
+        <v>0.6291148485460641</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.982610292839506</v>
+        <v>0.9688406572939785</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.019096054634114</v>
+        <v>1.003554604536774</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.626840698378374</v>
+        <v>0.618651114959562</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7187277111199022</v>
+        <v>0.720222904950014</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6762054469918871</v>
+        <v>0.6586705890362407</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5348565232811612</v>
+        <v>0.5698566599918671</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7431756309999203</v>
+        <v>0.749567620336117</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7415618902465078</v>
+        <v>0.7337109925294198</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.245490182757631</v>
+        <v>6.234801249122223</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.848646379637945</v>
+        <v>6.657670915623298</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15.39059169736006</v>
+        <v>15.41259801487821</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14.21021675064868</v>
+        <v>14.02736547932006</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>12.07992851516664</v>
+        <v>12.39240960913522</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.28317513064121</v>
+        <v>18.18433831169331</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>11.58355101396114</v>
+        <v>11.47664525686985</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>10.81108428861587</v>
+        <v>10.76414032272515</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>17.87366933554589</v>
+        <v>17.93609686858909</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.56428918383039</v>
+        <v>13.65944471802506</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.66737542798377</v>
+        <v>14.67030427768309</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23.20871984192574</v>
+        <v>23.2467488801143</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21.73691180866925</v>
+        <v>22.08004231857615</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>19.68256040339229</v>
+        <v>20.44794259533519</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.11319709953876</v>
+        <v>25.21566055728983</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.99892097912326</v>
+        <v>17.06160675073501</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>16.29838059415247</v>
+        <v>16.23874326852313</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>23.20791045121187</v>
+        <v>23.30498580984425</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3400593695999454</v>
+        <v>0.3409159779724354</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3501371655682838</v>
+        <v>0.3613076208634389</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8305709097820898</v>
+        <v>0.826651045580985</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.76426592505977</v>
+        <v>0.7742461247518352</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6357359286564774</v>
+        <v>0.6766804268039535</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.965175344033974</v>
+        <v>0.9872518621777266</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6333524912258324</v>
+        <v>0.6355828388725695</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6019262126129691</v>
+        <v>0.5886754621337719</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.976302382347801</v>
+        <v>0.9974340826043614</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9029222208827364</v>
+        <v>0.8757113812508492</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9562323186574193</v>
+        <v>0.9380301787397032</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.53366181928772</v>
+        <v>1.539930622336249</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.465600737409089</v>
+        <v>1.463262821975636</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.288379304338348</v>
+        <v>1.361211556369254</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.657930025988241</v>
+        <v>1.680330097247007</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.082695364107622</v>
+        <v>1.074329462065908</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.032163995180467</v>
+        <v>1.026297106356852</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.475012236974966</v>
+        <v>1.507143935074228</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>13.27922090986666</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>16.31950714808991</v>
+        <v>16.3195071480899</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>10.70245045746203</v>
@@ -1520,7 +1520,7 @@
         <v>11.88826055553441</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>16.62071870938206</v>
+        <v>16.62071870938205</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.422380644375238</v>
+        <v>6.48994697242652</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.049716118370569</v>
+        <v>8.33235871473088</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14.5641482592504</v>
+        <v>14.70577044290974</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10.68492799147491</v>
+        <v>10.60031607946291</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>10.77554994783617</v>
+        <v>11.10243079061028</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>14.34614127475226</v>
+        <v>14.3476832695069</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>9.090193491961832</v>
+        <v>9.219046853973973</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>10.11931205312681</v>
+        <v>10.26792281125857</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>15.00131842025873</v>
+        <v>15.0446257914721</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.56213393234781</v>
+        <v>10.55985951703798</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.46678847413154</v>
+        <v>12.5316627517625</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19.08332145587742</v>
+        <v>19.12268777394885</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.07801984724563</v>
+        <v>15.07939721120851</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>15.23065818810831</v>
+        <v>15.72312528284074</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>18.35830178566853</v>
+        <v>18.10505858636906</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.17601160464625</v>
+        <v>12.23363754614232</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.2819187001964</v>
+        <v>13.33332246650617</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>18.00273259881637</v>
+        <v>17.98584942867111</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.6159602135065376</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7569847038081891</v>
+        <v>0.7569847038081888</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5472699027639356</v>
@@ -1625,7 +1625,7 @@
         <v>0.6079063130559444</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.8499006043618977</v>
+        <v>0.8499006043618972</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.3481188552346004</v>
+        <v>0.3449561505631423</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4387597273953923</v>
+        <v>0.4484832427435414</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7722796433225662</v>
+        <v>0.7918498523586908</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4735029579907021</v>
+        <v>0.4698795632750739</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4778061998751382</v>
+        <v>0.4861353915337671</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6340533245373785</v>
+        <v>0.6314412733912732</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4502071697125454</v>
+        <v>0.4528030829451142</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4960647250517711</v>
+        <v>0.5059571110432743</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.737046200877972</v>
+        <v>0.7416418250378066</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6381300622341198</v>
+        <v>0.6325168611426772</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.743251019785555</v>
+        <v>0.7514870767009634</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.154654447932874</v>
+        <v>1.138665909015117</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7461071272290791</v>
+        <v>0.7425702808748065</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7429629770519389</v>
+        <v>0.7604818018221378</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9030462116145954</v>
+        <v>0.8807438722299317</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6463705432655595</v>
+        <v>0.6485833519459425</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7045618998063785</v>
+        <v>0.7130247971162081</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9602707157738705</v>
+        <v>0.9551851376047972</v>
       </c>
     </row>
     <row r="34">
